--- a/数字化光的衍射数据.xlsx
+++ b/数字化光的衍射数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13467\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44AB512-0966-4C9E-A02A-2ECAEDA7D720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCF2B36-5DC7-4A5A-B0C9-85A4C239245F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,7 +782,7 @@
       <c r="A2" s="3">
         <v>650</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
         <v>0.91100000000000003</v>
       </c>
       <c r="C2" s="10" t="s">
